--- a/biology/Botanique/Auguste-Denis_Fougeroux_de_Bondaroy/Auguste-Denis_Fougeroux_de_Bondaroy.xlsx
+++ b/biology/Botanique/Auguste-Denis_Fougeroux_de_Bondaroy/Auguste-Denis_Fougeroux_de_Bondaroy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Auguste-Denis Fougeroux de Bondaroy est un botaniste français, né le 10 octobre 1732 à Paris et mort le 28 décembre 1789 dans cette même ville.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le neveu et principal collaborateur de l’ingénieur et botaniste Henri Louis Duhamel du Monceau et le père du député Charles du Hamel de Fougeroux. Élu adjoint botaniste à l'Académie le 25 août 1758, c'est un excellent dessinateur. Il rédige quatre monographies de la Description des arts et métiers : l'Art de l'ardoisier, du coutelier, du tonnelier et du travail des cuirs dorés ou argentés[1].
-Les papiers personnels d'Auguste-Denis Fougeroux de Bondaroy sont conservés aux Archives nationales sous la cote 127AP[2]. Une partie de ses journaux, croquis et correspondances sont conservés à Philadelphie, dans les collections de l'American philosophical society[3] sous la côte Mss.B.D87.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le neveu et principal collaborateur de l’ingénieur et botaniste Henri Louis Duhamel du Monceau et le père du député Charles du Hamel de Fougeroux. Élu adjoint botaniste à l'Académie le 25 août 1758, c'est un excellent dessinateur. Il rédige quatre monographies de la Description des arts et métiers : l'Art de l'ardoisier, du coutelier, du tonnelier et du travail des cuirs dorés ou argentés.
+Les papiers personnels d'Auguste-Denis Fougeroux de Bondaroy sont conservés aux Archives nationales sous la cote 127AP. Une partie de ses journaux, croquis et correspondances sont conservés à Philadelphie, dans les collections de l'American philosophical society sous la côte Mss.B.D87.
 </t>
         </is>
       </c>
@@ -543,14 +557,16 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1752 : Art de travailler les Cuirs dorés et argentées.
 1759 : Mémoire sur les bois pétrifiées.Mémoires de l'Académie royale des sciences de Paris, 430-452.
 1762 : Art de Tirer des Carrières la Pierre d'Ardoise, de la Fendre et de la Tailler.
 1763 : Mémoire sur la formation des os.
 1763 : Art du Tonnelier.
-1770 : Recherches sur les ruines d'Herculanum[4]
+1770 : Recherches sur les ruines d'Herculanum
 1773 : Observations faites sur les côtes de Normandie.</t>
         </is>
       </c>
